--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>18-06-2017</t>
+  </si>
+  <si>
+    <t>19-06-2017</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -392,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,80 +403,110 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>18-06-2017</t>
   </si>
   <si>
     <t>19-06-2017</t>
+  </si>
+  <si>
+    <t>22-06-2017</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -395,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,17 +406,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -421,10 +427,13 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -432,10 +441,13 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -443,10 +455,13 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -454,10 +469,13 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -465,10 +483,13 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -476,10 +497,13 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -487,10 +511,13 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -498,15 +525,21 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iver\github\TPV_Skjema\TPV_Source\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6525"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -23,6 +28,9 @@
   </si>
   <si>
     <t>22-06-2017</t>
+  </si>
+  <si>
+    <t>29-06-2017, Thursday</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -55,23 +63,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,26 +95,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,20 +419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,134 +441,164 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>29-06-2017, Thursday</t>
+  </si>
+  <si>
+    <t>02-07-2017, Sunday</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,9 +432,10 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +448,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -461,10 +468,13 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -478,10 +488,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -495,10 +508,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -512,10 +528,13 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -529,10 +548,13 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -546,10 +568,13 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -563,10 +588,13 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -580,10 +608,13 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -596,6 +627,9 @@
       </c>
       <c r="E10">
         <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>02-07-2017, Sunday</t>
+  </si>
+  <si>
+    <t>03-07-2017, Monday</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,9 +436,10 @@
     <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,10 +455,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -471,10 +478,13 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -491,10 +501,13 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -511,10 +524,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -531,10 +547,13 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -551,10 +570,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -571,10 +593,13 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -591,10 +616,13 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -611,10 +639,13 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -629,6 +660,9 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>03-07-2017, Monday</t>
+  </si>
+  <si>
+    <t>04-07-2017, Tuesday</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -426,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +439,10 @@
     <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,10 +461,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -481,10 +487,13 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -504,10 +513,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -527,10 +539,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -550,10 +565,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -573,10 +591,13 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -596,10 +617,13 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -619,10 +643,13 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -642,10 +669,13 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -664,6 +694,9 @@
       </c>
       <c r="G10">
         <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iver\github\TPV_Skjema\TPV_Source\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="6525"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -40,6 +35,18 @@
   </si>
   <si>
     <t>04-07-2017, Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday, 05-07-2017</t>
+  </si>
+  <si>
+    <t>Wed, 05-07-2017</t>
+  </si>
+  <si>
+    <t>05-07-2017, Wed</t>
+  </si>
+  <si>
+    <t>05.07.2017, Wed</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -72,24 +79,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,43 +110,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -428,21 +417,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,242 +452,362 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>05.07.2017, Wed</t>
+  </si>
+  <si>
+    <t>08.07.2017, Sat</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -422,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,10 +467,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -502,10 +508,13 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -540,10 +549,13 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -578,10 +590,13 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -616,10 +631,13 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -654,10 +672,13 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -692,10 +713,13 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -730,10 +754,13 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -768,10 +795,13 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -805,6 +835,9 @@
       </c>
       <c r="L10" t="n">
         <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>08.07.2017, Sat</t>
+  </si>
+  <si>
+    <t>09.07.2017, Sun</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,10 +473,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -511,10 +517,13 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -552,10 +561,13 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -593,10 +605,13 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -634,10 +649,13 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -675,10 +693,13 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -716,10 +737,13 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -757,10 +781,13 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -798,10 +825,13 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -838,6 +868,9 @@
       </c>
       <c r="M10" t="n">
         <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>09.07.2017, Sun</t>
+  </si>
+  <si>
+    <t>10.07.2017, Mon</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,10 +479,13 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -520,10 +526,13 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -564,10 +573,13 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -608,10 +620,13 @@
       <c r="N4" t="n">
         <v>1</v>
       </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -652,10 +667,13 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -696,10 +714,13 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -740,10 +761,13 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -784,10 +808,13 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -828,10 +855,13 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -870,6 +900,9 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/TPV_Source/TPV.xlsx
+++ b/TPV_Source/TPV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>18-06-2017</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>10.07.2017, Mon</t>
+  </si>
+  <si>
+    <t>11.07.2017, Tue</t>
   </si>
   <si>
     <t>Spindel</t>
@@ -431,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,10 +485,13 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -529,10 +535,13 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -576,10 +585,13 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -623,10 +635,13 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -670,10 +685,13 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -717,10 +735,13 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -764,10 +785,13 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -811,10 +835,13 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -858,10 +885,13 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -903,6 +933,9 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
